--- a/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
+++ b/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
   <si>
     <t>Network Hierarchy</t>
   </si>
@@ -418,6 +418,21 @@
   </si>
   <si>
     <t>Building</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Leicester</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1102,8 @@
       <sheetName val="Backups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="19">
           <cell r="B19" t="str">
@@ -1106,20 +1121,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1415,14 +1430,14 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1476,9 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -1476,7 +1493,9 @@
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
@@ -1491,7 +1510,9 @@
       <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
@@ -1504,7 +1525,9 @@
       <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
@@ -1517,7 +1540,9 @@
       <c r="D8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -1532,7 +1557,9 @@
       <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -1547,7 +1574,9 @@
       <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
@@ -1560,7 +1589,9 @@
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -1573,7 +1604,9 @@
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1981,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
+++ b/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="139">
   <si>
     <t>Network Hierarchy</t>
   </si>
@@ -39,7 +39,13 @@
     <t>SITE_1</t>
   </si>
   <si>
+    <t>SITE_5</t>
+  </si>
+  <si>
     <t>SITE_2</t>
+  </si>
+  <si>
+    <t>S1B1</t>
   </si>
   <si>
     <t>S2B1</t>
@@ -423,9 +429,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Scotland</t>
-  </si>
-  <si>
     <t>Birmingham</t>
   </si>
   <si>
@@ -433,15 +436,17 @@
   </si>
   <si>
     <t>Leicester</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -678,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1102,8 +1107,8 @@
       <sheetName val="Backups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="19">
           <cell r="B19" t="str">
@@ -1121,20 +1126,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1427,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,13 +1476,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1487,75 +1492,65 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>130</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>14</v>
+      <c r="D9" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>135</v>
@@ -1563,61 +1558,83 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1664,7 +1681,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="24"/>
@@ -1678,19 +1695,19 @@
     </row>
     <row r="4" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -1784,7 +1801,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1798,76 +1815,76 @@
     </row>
     <row r="13" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>4</v>
@@ -1886,73 +1903,73 @@
     </row>
     <row r="16" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
@@ -1962,15 +1979,15 @@
       <c r="I18" s="30"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
@@ -2053,7 +2070,7 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2066,13 +2083,13 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2083,7 +2100,7 @@
     </row>
     <row r="5" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2096,7 +2113,7 @@
     </row>
     <row r="6" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -2109,7 +2126,7 @@
     </row>
     <row r="7" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="38">
         <f>[1]Systems!$B$7</f>
@@ -2128,7 +2145,7 @@
     </row>
     <row r="8" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="39">
         <f>[1]Systems!$B$8</f>
@@ -2147,7 +2164,7 @@
     </row>
     <row r="9" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" s="39">
         <f>[1]Systems!$B$9</f>
@@ -2166,7 +2183,7 @@
     </row>
     <row r="10" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="39">
         <f>[1]Systems!$B$14</f>
@@ -2185,7 +2202,7 @@
     </row>
     <row r="11" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="39">
         <f>[1]Systems!$B$15</f>
@@ -2204,7 +2221,7 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="39">
         <f>[1]Systems!$B$16</f>
@@ -2223,7 +2240,7 @@
     </row>
     <row r="13" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="39">
         <f>[1]Systems!$B$17</f>
@@ -2242,7 +2259,7 @@
     </row>
     <row r="14" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="41">
         <f>[1]Systems!$B$18</f>
@@ -2261,7 +2278,7 @@
     </row>
     <row r="15" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="41">
         <f>[1]Systems!$B$19</f>
@@ -2280,7 +2297,7 @@
     </row>
     <row r="16" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" s="42" t="str">
         <f>CONCATENATE([1]Systems!$B$20," port UDP 2055")</f>
@@ -2299,13 +2316,13 @@
     </row>
     <row r="17" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2316,13 +2333,13 @@
     </row>
     <row r="18" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2331,15 +2348,15 @@
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2348,9 +2365,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" s="42" t="str">
         <f xml:space="preserve"> CONCATENATE([1]Systems!$B$12," (",[1]Systems!$C$12,")")</f>
@@ -2367,9 +2384,9 @@
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="42" t="str">
         <f xml:space="preserve"> CONCATENATE([1]Systems!$B$13," (",[1]Systems!$C$13,")")</f>
@@ -2386,15 +2403,15 @@
       <c r="H21" s="4"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2403,15 +2420,15 @@
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2420,9 +2437,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" s="42" t="str">
         <f xml:space="preserve"> CONCATENATE([1]Systems!$B$10," (",[1]Systems!$C$10,")")</f>
@@ -2439,9 +2456,9 @@
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B25" s="42" t="str">
         <f xml:space="preserve"> CONCATENATE([1]Systems!$B$11," (",[1]Systems!$C$11,")")</f>
@@ -2471,7 +2488,7 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2484,106 +2501,106 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2602,7 +2619,7 @@
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2618,27 +2635,27 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2647,22 +2664,22 @@
         <v>4</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2671,22 +2688,22 @@
         <v>4</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2695,22 +2712,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D38" s="46"/>
       <c r="E38" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2719,22 +2736,22 @@
         <v>4</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D39" s="46"/>
       <c r="E39" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2743,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
@@ -2752,7 +2769,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2761,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
@@ -2770,7 +2787,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2779,22 +2796,22 @@
         <v>4</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42" s="46"/>
       <c r="E42" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2803,22 +2820,22 @@
         <v>4</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D43" s="46"/>
       <c r="E43" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2827,22 +2844,22 @@
         <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D44" s="46"/>
       <c r="E44" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2851,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
@@ -2860,7 +2877,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2869,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D46" s="46"/>
       <c r="E46" s="46"/>
@@ -2878,7 +2895,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2887,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
@@ -2896,7 +2913,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2905,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
@@ -2914,14 +2931,14 @@
       <c r="H48" s="4"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="49" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
@@ -2954,7 +2971,7 @@
     </row>
     <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2967,16 +2984,16 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
@@ -2984,7 +3001,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="e">
         <f>CONCATENATE("Global/",#REF!)</f>
         <v>#REF!</v>
@@ -2994,10 +3011,10 @@
         <v>E.g. s1-main-bac01</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
@@ -3005,17 +3022,17 @@
       <c r="H54" s="4"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="12" t="str">
         <f>'[1]Naming&amp;Location'!$B$20</f>
         <v>E.g. s1-main-bac02</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
@@ -3030,7 +3047,7 @@
         <v>E.g. S1-test-fes01</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="2"/>
@@ -3052,7 +3069,7 @@
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3065,16 +3082,16 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3084,13 +3101,13 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="4"/>

--- a/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
+++ b/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>Network Hierarchy</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1438,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>133</v>

--- a/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
+++ b/dnac/data_sources/LSDD-Form-SDA-optimized-full.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NetHie" sheetId="1" r:id="rId1"/>
-    <sheet name="VRFs&amp;VNs" sheetId="2" r:id="rId2"/>
-    <sheet name="NetSrv" sheetId="3" r:id="rId3"/>
+    <sheet name="VRFs" sheetId="4" r:id="rId2"/>
+    <sheet name="VNs" sheetId="2" r:id="rId3"/>
+    <sheet name="NetSrv" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1437,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1643,10 +1644,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A3:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,110 +1820,200 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+    <row r="5" spans="1:10" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+    <row r="6" spans="1:10" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="29"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+    <row r="7" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+    <row r="8" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="A10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1802,227 +2028,17 @@
       <c r="I11" s="22"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,7 +2046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
